--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>813709.7748128677</v>
+        <v>893928.5326353909</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11646408.94487069</v>
+        <v>11672620.63342789</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5017151.407088749</v>
+        <v>5820847.292160627</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9796375.178039217</v>
+        <v>9515205.276176888</v>
       </c>
     </row>
     <row r="11">
@@ -674,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>257.443726221066</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -716,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>284.2730915172197</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.3343964518635</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>92.83156789269626</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>22.63596388478672</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>134.3646350838588</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
-        <v>192.0665623188218</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>84.73964677812187</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>6.111006951479426</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>393.80457164559</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>94.76106821136219</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.3343964518635</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>96.65565115906499</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>33.85559031833737</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>134.3646350838588</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T6" t="n">
-        <v>192.0665623188214</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>102.4426836810736</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>147.6786976141419</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>114.7793764994863</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>116.4834600519699</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>182.6166536273417</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>329.2835007042323</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3222619078506</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>134.1392412509879</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>192.01765159098</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8084047615432</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1291,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>196.2345200615767</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>155.1498917871974</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>75.45713216103746</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>173.5578851713665</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1467,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247811</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -1546,7 +1548,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>78.6186763406598</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,25 +1609,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>235.9375844494541</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>10.88033756279917</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -1667,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>11.9442473901265</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,7 +1782,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -1810,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,19 +1846,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>41.96425921496967</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>145.2481701217138</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -1904,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1941,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2008,7 +2010,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2019,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>24.86185588670049</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>209.3584761600174</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2087,16 +2089,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>351.244394422446</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>238.6591887249599</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>6.38006817584838</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2299,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>218.4154947474644</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2324,19 +2326,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>402.7106095258304</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2381,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2415,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.487334137518444</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,22 +2529,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>150.2062474346973</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>120.6088074159607</v>
       </c>
       <c r="H26" t="n">
-        <v>199.2130615149928</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2652,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>11.61592966729569</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2801,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -2840,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>16.34825474388504</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>8.351365932539315</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2889,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247712</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,22 +3000,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>203.6597537114134</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>131.7046502308601</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3032,22 +3034,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>353.0738802797765</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>256.7273523546854</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>66.07448869287019</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,16 +3237,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>130.3931947860387</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3275,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>105.0023863360935</v>
+        <v>72.97362349455813</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>148.8557665615974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>65.33825739391212</v>
+        <v>229.7965692041367</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3709,22 +3711,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>113.3013214530275</v>
+        <v>106.5867442799596</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3749,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>138.1468804189081</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,16 +3796,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>144.6145277840839</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3837,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3904,16 +3906,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3955,13 +3957,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>17.31702121075522</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>75.32192060851585</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3986,10 +3988,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>229.7965692041367</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4028,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>57.92518451681089</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4135,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4152,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>82.39501537729573</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>83.96546591245735</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1449.50507480484</v>
+        <v>1190.01397565959</v>
       </c>
       <c r="C2" t="n">
-        <v>1080.542557864428</v>
+        <v>821.0514587191778</v>
       </c>
       <c r="D2" t="n">
-        <v>722.2768592576774</v>
+        <v>462.7857601124273</v>
       </c>
       <c r="E2" t="n">
-        <v>722.2768592576774</v>
+        <v>462.7857601124273</v>
       </c>
       <c r="F2" t="n">
-        <v>311.2909544680699</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G2" t="n">
-        <v>311.2909544680699</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>240.4397543365561</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>643.9068673566015</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>987.3069285423229</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1174.006341367731</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1368.340554259713</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>1915.50175902679</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2344.816805366085</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>2302.848229254905</v>
       </c>
       <c r="W2" t="n">
-        <v>2209.570673130041</v>
+        <v>1950.079573984791</v>
       </c>
       <c r="X2" t="n">
-        <v>1836.104914868961</v>
+        <v>1576.613815723711</v>
       </c>
       <c r="Y2" t="n">
-        <v>1836.104914868961</v>
+        <v>1576.613815723711</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966385</v>
+        <v>942.181292724375</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155116</v>
+        <v>767.728263443248</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>618.7938537819967</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488048</v>
+        <v>459.5563987765412</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>313.0218408034262</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>175.5804431626482</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>74.66446530745277</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="K3" t="n">
-        <v>483.0441129489467</v>
+        <v>119.4076749861767</v>
       </c>
       <c r="L3" t="n">
-        <v>1117.223096727985</v>
+        <v>623.7692148522954</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687205</v>
+        <v>803.2665512069002</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1385.875532846958</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1935.311541599681</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2359.279310080518</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2440.52597700362</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2243.536681163708</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2015.397893674874</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1780.245785443131</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1526.00842871493</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1318.156928509397</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1110.396629744443</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>347.89877828689</v>
+        <v>966.1389339759808</v>
       </c>
       <c r="C4" t="n">
-        <v>347.89877828689</v>
+        <v>797.2027510480739</v>
       </c>
       <c r="D4" t="n">
-        <v>347.89877828689</v>
+        <v>647.0861116357381</v>
       </c>
       <c r="E4" t="n">
-        <v>199.9856847044969</v>
+        <v>499.173018053345</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>499.173018053345</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>330.5661730487284</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>176.3115299484934</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>152.8477849184295</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>337.680779819248</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>542.9503805384859</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>748.7737453745901</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>922.868640763189</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1048.316217361805</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1051.734536782164</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1051.734536782164</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1051.734536782164</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1051.734536782164</v>
       </c>
       <c r="U4" t="n">
-        <v>825.137147448514</v>
+        <v>1051.734536782164</v>
       </c>
       <c r="V4" t="n">
-        <v>818.9644131540904</v>
+        <v>1051.734536782164</v>
       </c>
       <c r="W4" t="n">
-        <v>529.5472431171297</v>
+        <v>1051.734536782164</v>
       </c>
       <c r="X4" t="n">
-        <v>529.5472431171297</v>
+        <v>1051.734536782164</v>
       </c>
       <c r="Y4" t="n">
-        <v>529.5472431171297</v>
+        <v>1051.734536782164</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1588.713578732508</v>
+        <v>1671.520478976381</v>
       </c>
       <c r="C5" t="n">
-        <v>1588.713578732508</v>
+        <v>1302.55796203597</v>
       </c>
       <c r="D5" t="n">
-        <v>1230.447880125758</v>
+        <v>944.2922634292192</v>
       </c>
       <c r="E5" t="n">
-        <v>1230.447880125758</v>
+        <v>558.5040108309749</v>
       </c>
       <c r="F5" t="n">
-        <v>819.4619753361505</v>
+        <v>147.5181060413674</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>147.5181060413674</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>293.3053724073759</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>605.2571586872722</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>842.8799399054635</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1138.950506463066</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1444.42561269865</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>1719.541832015284</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2238.426880394155</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2550.866182466515</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.31341879663</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="V5" t="n">
-        <v>1975.31341879663</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="W5" t="n">
-        <v>1975.31341879663</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="X5" t="n">
-        <v>1975.31341879663</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="Y5" t="n">
-        <v>1975.31341879663</v>
+        <v>2058.120319040503</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>626.5027693669851</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>467.2653143615296</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>320.7307563884145</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>183.6293921686807</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>85.99742130093827</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>201.9455071369552</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735142</v>
+        <v>585.1891840496867</v>
       </c>
       <c r="L6" t="n">
-        <v>1092.885047004312</v>
+        <v>1041.052645433269</v>
       </c>
       <c r="M6" t="n">
-        <v>1456.147065963532</v>
+        <v>1304.992176928757</v>
       </c>
       <c r="N6" t="n">
-        <v>1843.432194560477</v>
+        <v>1590.326047362089</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>1829.130999113547</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2316.738101020795</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>2446.841948662051</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>2251.223226128891</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1533.717344299918</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1325.865844094385</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>322.7107095234352</v>
+        <v>766.6588426383048</v>
       </c>
       <c r="C7" t="n">
-        <v>219.2332512597245</v>
+        <v>766.6588426383048</v>
       </c>
       <c r="D7" t="n">
-        <v>219.2332512597245</v>
+        <v>616.542203225969</v>
       </c>
       <c r="E7" t="n">
-        <v>219.2332512597245</v>
+        <v>468.6291096435759</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>468.6291096435759</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>319.4587080131296</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>167.7386194637149</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>54.034527330184</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>187.5436166159871</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>413.9157199341311</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>662.9824862666712</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>911.5616180092719</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1125.148384357427</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1284.388078993471</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1311.202309361121</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1193.542248702565</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.86271359008</v>
+        <v>991.0700018628668</v>
       </c>
       <c r="T7" t="n">
-        <v>1310.884232784815</v>
+        <v>766.6588426383048</v>
       </c>
       <c r="U7" t="n">
-        <v>1021.765895288653</v>
+        <v>766.6588426383048</v>
       </c>
       <c r="V7" t="n">
-        <v>1021.765895288653</v>
+        <v>766.6588426383048</v>
       </c>
       <c r="W7" t="n">
-        <v>732.3487252516923</v>
+        <v>766.6588426383048</v>
       </c>
       <c r="X7" t="n">
-        <v>504.3591743536749</v>
+        <v>766.6588426383048</v>
       </c>
       <c r="Y7" t="n">
-        <v>504.3591743536749</v>
+        <v>766.6588426383048</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1432.831501090107</v>
+        <v>2212.236357502977</v>
       </c>
       <c r="C8" t="n">
-        <v>1432.831501090107</v>
+        <v>1843.273840562566</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.370234799863</v>
+        <v>1485.008141955815</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>1099.219889357571</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>688.2339845679633</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>355.6243878970215</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>447.8319447135507</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>804.6133007477381</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2212.236357502977</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2212.236357502977</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130041</v>
+        <v>2212.236357502977</v>
       </c>
       <c r="X8" t="n">
-        <v>2209.570673130041</v>
+        <v>2212.236357502977</v>
       </c>
       <c r="Y8" t="n">
-        <v>1819.431341154229</v>
+        <v>2212.236357502977</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3045644835107</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8515352023837</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057878</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>119.9870984135515</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>304.7087196946015</v>
+        <v>426.7768722128335</v>
       </c>
       <c r="L9" t="n">
-        <v>599.4122767260733</v>
+        <v>724.0888213291482</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.591260505112</v>
+        <v>1090.394710821474</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1480.804272147216</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1815.732952862747</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2380.487821681304</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2536.977948259489</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.567687002215</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610463172942</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.52116543401</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.369057202267</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131700474065</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.280200268533</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519901503579</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>770.8338829770711</v>
+        <v>1087.825563768798</v>
       </c>
       <c r="C10" t="n">
-        <v>770.8338829770711</v>
+        <v>918.8893808408909</v>
       </c>
       <c r="D10" t="n">
-        <v>620.7172435647353</v>
+        <v>768.7727414285552</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>620.859647846162</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>473.9697003482516</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>305.993511610141</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1439.817372234359</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>1150.699034738196</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>1150.699034738196</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W10" t="n">
-        <v>952.4823478073108</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="X10" t="n">
-        <v>952.4823478073108</v>
+        <v>1490.266607742567</v>
       </c>
       <c r="Y10" t="n">
-        <v>952.4823478073108</v>
+        <v>1269.474028599037</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1232.150970528558</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C11" t="n">
-        <v>1232.150970528558</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D11" t="n">
-        <v>1232.150970528558</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
@@ -5042,7 +5044,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5066,25 +5068,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450754</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180639</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.50962791956</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943748</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="12">
@@ -5094,70 +5096,70 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>380.4321398396066</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C13" t="n">
-        <v>380.4321398396066</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D13" t="n">
-        <v>380.4321398396066</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E13" t="n">
-        <v>380.4321398396066</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F13" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
@@ -5200,16 +5202,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
         <v>1617.076751502319</v>
@@ -5221,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1847.881743703988</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1656.195859530815</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1434.429244100341</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U13" t="n">
-        <v>1145.326377225984</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V13" t="n">
-        <v>890.6418890200973</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W13" t="n">
-        <v>601.2247189831368</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X13" t="n">
-        <v>601.2247189831368</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y13" t="n">
-        <v>380.4321398396066</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1274.53911114974</v>
+        <v>1032.061124352532</v>
       </c>
       <c r="C14" t="n">
-        <v>1274.53911114974</v>
+        <v>663.0986074121199</v>
       </c>
       <c r="D14" t="n">
-        <v>916.2734125429899</v>
+        <v>304.8329088053694</v>
       </c>
       <c r="E14" t="n">
-        <v>530.4851599447456</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F14" t="n">
-        <v>119.4992551551381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G14" t="n">
-        <v>119.4992551551381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450754</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W14" t="n">
-        <v>2424.744041450754</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X14" t="n">
-        <v>2051.278283189674</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y14" t="n">
-        <v>1661.138951213862</v>
+        <v>1418.660964416653</v>
       </c>
     </row>
     <row r="15">
@@ -5331,31 +5333,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
@@ -5388,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>659.4316570185995</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C16" t="n">
-        <v>490.4954740906926</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D16" t="n">
-        <v>490.4954740906926</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E16" t="n">
-        <v>478.4305777370295</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F16" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H16" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5458,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621296</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W16" t="n">
-        <v>880.2242361621296</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X16" t="n">
-        <v>880.2242361621296</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y16" t="n">
-        <v>659.4316570185995</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1274.53911114974</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C17" t="n">
-        <v>1274.53911114974</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D17" t="n">
-        <v>1274.53911114974</v>
+        <v>552.807938939214</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>552.807938939214</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>552.807938939214</v>
       </c>
       <c r="G17" t="n">
         <v>406.0926155839475</v>
@@ -5516,7 +5518,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5552,13 +5554,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W17" t="n">
-        <v>2424.744041450753</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X17" t="n">
-        <v>2051.278283189673</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y17" t="n">
-        <v>1661.138951213862</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>1378.70869461456</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>936.5735814686075</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H18" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I18" t="n">
-        <v>827.0643955080129</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
-        <v>920.7416649986303</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M18" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>725.2707086397594</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C19" t="n">
-        <v>556.3345257118525</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D19" t="n">
-        <v>406.2178862995167</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E19" t="n">
-        <v>406.2178862995167</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F19" t="n">
-        <v>259.3279388016064</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G19" t="n">
-        <v>91.62510217632533</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
@@ -5695,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T19" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U19" t="n">
-        <v>1134.908724368016</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V19" t="n">
-        <v>1134.908724368016</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="W19" t="n">
-        <v>1134.908724368016</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="X19" t="n">
-        <v>906.9191734699991</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y19" t="n">
-        <v>906.9191734699991</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1605.601998493311</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C20" t="n">
-        <v>1236.639481552899</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D20" t="n">
-        <v>878.3737829461486</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E20" t="n">
-        <v>878.3737829461486</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F20" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G20" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H20" t="n">
         <v>108.5090151927147</v>
@@ -5750,7 +5752,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
         <v>589.2106210810553</v>
@@ -5759,7 +5761,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5777,25 +5779,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794324</v>
+        <v>3084.535934008201</v>
       </c>
       <c r="V20" t="n">
-        <v>2755.806928794324</v>
+        <v>3084.535934008201</v>
       </c>
       <c r="W20" t="n">
-        <v>2755.806928794324</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="X20" t="n">
-        <v>2382.341170533244</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="Y20" t="n">
-        <v>1992.201838557432</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>532.4548862703364</v>
+        <v>1640.204086189706</v>
       </c>
       <c r="C22" t="n">
-        <v>363.5187033424295</v>
+        <v>1471.267903261799</v>
       </c>
       <c r="D22" t="n">
-        <v>213.4020639300938</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="E22" t="n">
-        <v>213.4020639300938</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T22" t="n">
-        <v>1927.294548088493</v>
+        <v>3103.839206178697</v>
       </c>
       <c r="U22" t="n">
-        <v>1638.191681214136</v>
+        <v>2814.736339304341</v>
       </c>
       <c r="V22" t="n">
-        <v>1383.507193008249</v>
+        <v>2560.051851098454</v>
       </c>
       <c r="W22" t="n">
-        <v>1162.885481142124</v>
+        <v>2270.634681061493</v>
       </c>
       <c r="X22" t="n">
-        <v>934.8959302441062</v>
+        <v>2042.645130163476</v>
       </c>
       <c r="Y22" t="n">
-        <v>714.1033511005761</v>
+        <v>1821.852551019946</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>1611.504630229388</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>1242.542113288976</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>884.2764146822258</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>884.2764146822258</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551617</v>
+        <v>473.2905098926182</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001583</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089255</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2812.369300656582</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>3692.333950986037</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>4405.689038432983</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>1998.10447029351</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973196</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161926</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549414</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>390.3640755286979</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C25" t="n">
-        <v>390.3640755286979</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D25" t="n">
-        <v>390.3640755286979</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E25" t="n">
-        <v>242.4509819463048</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839441</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839441</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384228</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V25" t="n">
-        <v>909.2731541783409</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="W25" t="n">
-        <v>619.8559841413803</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="X25" t="n">
-        <v>391.866433243363</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y25" t="n">
-        <v>391.866433243363</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2222.07758404799</v>
+        <v>1712.341567565137</v>
       </c>
       <c r="C26" t="n">
-        <v>1853.115067107578</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="D26" t="n">
-        <v>1494.849368500828</v>
+        <v>985.1133520179753</v>
       </c>
       <c r="E26" t="n">
-        <v>1109.061115902584</v>
+        <v>599.325099419731</v>
       </c>
       <c r="F26" t="n">
-        <v>698.0752111129761</v>
+        <v>188.3391946301235</v>
       </c>
       <c r="G26" t="n">
-        <v>283.0027609579726</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H26" t="n">
-        <v>81.77744629636373</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77744629636373</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>270.6565772553892</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>604.4759509452356</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1055.510164193644</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1589.042068865569</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2289.99023175186</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>2792.962702631197</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3506.317790078143</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q26" t="n">
-        <v>3964.795992587131</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>4088.872314818187</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3978.581646345282</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3978.581646345282</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U26" t="n">
-        <v>3725.051169619118</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V26" t="n">
-        <v>3725.051169619118</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W26" t="n">
-        <v>3372.282514349004</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X26" t="n">
-        <v>2998.816756087924</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y26" t="n">
-        <v>2608.677424112112</v>
+        <v>2098.941407629259</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.8091843452887</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C27" t="n">
-        <v>782.3561550641617</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D27" t="n">
-        <v>633.4217454029105</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>474.184290397455</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>327.64973242434</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G27" t="n">
-        <v>191.2866322569581</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H27" t="n">
-        <v>100.7847378948256</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I27" t="n">
-        <v>81.77744629636373</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>175.4547157869811</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K27" t="n">
-        <v>413.7189147673282</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L27" t="n">
-        <v>780.4170750799935</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M27" t="n">
-        <v>1227.693400302309</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1701.216443856764</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.177723274819</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.677314750922</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q27" t="n">
-        <v>2580.318872397521</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>2580.174518990037</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S27" t="n">
-        <v>2450.736632483517</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T27" t="n">
-        <v>2258.093632161372</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2030.025785295788</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
-        <v>1794.873677064045</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W27" t="n">
-        <v>1540.636320335843</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1332.784820130311</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1125.024521365357</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3095.988526533792</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C28" t="n">
-        <v>3084.255264243594</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D28" t="n">
-        <v>2934.138624831258</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E28" t="n">
-        <v>2786.225531248865</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F28" t="n">
-        <v>2639.335583750955</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G28" t="n">
-        <v>2471.632747125674</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>2325.415560343532</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>2228.089883161877</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
-        <v>2273.212515608813</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K28" t="n">
-        <v>2477.199698557689</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L28" t="n">
-        <v>2793.759497006185</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>3137.916542605734</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N28" t="n">
-        <v>3479.324919311599</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O28" t="n">
-        <v>3778.654518232012</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P28" t="n">
-        <v>4011.262018665672</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>4088.872314818187</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>4088.872314818187</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>4088.872314818187</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T28" t="n">
-        <v>4088.872314818187</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U28" t="n">
-        <v>4088.872314818187</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V28" t="n">
-        <v>3834.1878266123</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W28" t="n">
-        <v>3544.770656575339</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X28" t="n">
-        <v>3316.781105677322</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y28" t="n">
-        <v>3095.988526533792</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2360.432768538145</v>
+        <v>1221.525483338121</v>
       </c>
       <c r="C29" t="n">
-        <v>1991.470251597734</v>
+        <v>852.5629663977095</v>
       </c>
       <c r="D29" t="n">
-        <v>1633.204552990983</v>
+        <v>494.2972677909589</v>
       </c>
       <c r="E29" t="n">
-        <v>1247.416300392739</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F29" t="n">
-        <v>836.4303956031313</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G29" t="n">
-        <v>421.3579454481278</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H29" t="n">
-        <v>123.774345056895</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77744629636373</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>438.0622262757422</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>771.8815999655887</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L29" t="n">
-        <v>1426.519148088362</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1960.051052760286</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2506.829869819069</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
-        <v>3386.794520148524</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3781.568886505702</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>4029.855248261384</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>4088.872314818187</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3978.581646345282</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3772.603898729504</v>
+        <v>3309.092432978983</v>
       </c>
       <c r="U29" t="n">
-        <v>3519.07342200334</v>
+        <v>3055.56195625282</v>
       </c>
       <c r="V29" t="n">
-        <v>3519.07342200334</v>
+        <v>2724.499068909249</v>
       </c>
       <c r="W29" t="n">
-        <v>3510.637698839159</v>
+        <v>2371.730413639134</v>
       </c>
       <c r="X29" t="n">
-        <v>3137.171940578079</v>
+        <v>1998.264655378055</v>
       </c>
       <c r="Y29" t="n">
-        <v>2747.032608602267</v>
+        <v>1608.125323402243</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2465.362626765954</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>2290.909597484827</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>2141.975187823576</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>1982.73773281812</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>1836.203174845005</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>1699.840074677623</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>1609.338180315491</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>1590.330888717029</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>1684.008158207646</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>1922.272357187994</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>2288.970517500659</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
-        <v>2736.246842722975</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>3209.769886277429</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O30" t="n">
-        <v>3620.731165695484</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>3931.230757171587</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
-        <v>4088.872314818187</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
-        <v>4088.727961410702</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S30" t="n">
-        <v>3959.290074904182</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T30" t="n">
-        <v>3766.647074582037</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>3538.579227716453</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
-        <v>3303.42711948471</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W30" t="n">
-        <v>3049.189762756509</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>2841.338262550976</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>2633.577963786022</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>547.0474554187485</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C31" t="n">
-        <v>378.1112724908417</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D31" t="n">
-        <v>227.994633078506</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E31" t="n">
-        <v>227.994633078506</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F31" t="n">
-        <v>227.994633078506</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
-        <v>227.994633078506</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>81.77744629636373</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>81.77744629636373</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>126.9000787432993</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K31" t="n">
-        <v>330.8872616921757</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L31" t="n">
-        <v>647.4470601406717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M31" t="n">
-        <v>991.6041057402208</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N31" t="n">
-        <v>1333.012482446085</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O31" t="n">
-        <v>1632.342081366499</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P31" t="n">
-        <v>1864.949581800158</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q31" t="n">
-        <v>1942.559877952673</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1852.729420710201</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S31" t="n">
-        <v>1661.043536537027</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T31" t="n">
-        <v>1661.043536537027</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U31" t="n">
-        <v>1371.940669662671</v>
+        <v>1409.980552474725</v>
       </c>
       <c r="V31" t="n">
-        <v>1371.940669662671</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="W31" t="n">
-        <v>1082.52349962571</v>
+        <v>865.8788942318774</v>
       </c>
       <c r="X31" t="n">
-        <v>949.4884993925184</v>
+        <v>637.8893433338601</v>
       </c>
       <c r="Y31" t="n">
-        <v>728.6959202489883</v>
+        <v>417.09676419033</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1891.01469670442</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C32" t="n">
-        <v>1522.052179764008</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D32" t="n">
-        <v>1163.786481157257</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="E32" t="n">
-        <v>777.9982285590131</v>
+        <v>736.8185791558167</v>
       </c>
       <c r="F32" t="n">
-        <v>421.3579454481278</v>
+        <v>325.8326743662091</v>
       </c>
       <c r="G32" t="n">
-        <v>421.3579454481278</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H32" t="n">
-        <v>123.774345056895</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77744629636373</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>270.6565772553892</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>925.3799093906887</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1376.414122639098</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1909.946027311022</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2883.822049269187</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>3386.794520148524</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3781.568886505702</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>4029.855248261384</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>4088.872314818187</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3978.581646345282</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3978.581646345282</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U32" t="n">
-        <v>3725.051169619118</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V32" t="n">
-        <v>3393.988282275547</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W32" t="n">
-        <v>3041.219627005433</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X32" t="n">
-        <v>2667.753868744353</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y32" t="n">
-        <v>2277.614536768541</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.8091843452891</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C33" t="n">
-        <v>782.3561550641621</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D33" t="n">
-        <v>633.4217454029108</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E33" t="n">
-        <v>474.1842903974552</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F33" t="n">
-        <v>327.6497324243402</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G33" t="n">
-        <v>191.2866322569583</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H33" t="n">
-        <v>100.7847378948258</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I33" t="n">
-        <v>81.77744629636373</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>175.4547157869811</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K33" t="n">
-        <v>413.7189147673282</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L33" t="n">
-        <v>780.4170750799935</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M33" t="n">
-        <v>1227.693400302309</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N33" t="n">
-        <v>1701.216443856764</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O33" t="n">
-        <v>2112.177723274819</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.677314750922</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q33" t="n">
-        <v>2580.318872397521</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R33" t="n">
-        <v>2580.174518990037</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S33" t="n">
-        <v>2450.736632483517</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T33" t="n">
-        <v>2258.093632161373</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U33" t="n">
-        <v>2030.025785295788</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V33" t="n">
-        <v>1794.873677064045</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W33" t="n">
-        <v>1540.636320335844</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X33" t="n">
-        <v>1332.784820130311</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1125.024521365357</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>711.1150403709792</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="C34" t="n">
-        <v>542.1788574430723</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D34" t="n">
-        <v>392.0622180307365</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E34" t="n">
-        <v>392.0622180307365</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F34" t="n">
-        <v>325.3203102601606</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G34" t="n">
-        <v>325.3203102601606</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>179.1031234780184</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>81.77744629636373</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
-        <v>126.9000787432993</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K34" t="n">
-        <v>330.8872616921757</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L34" t="n">
-        <v>647.4470601406717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>991.6041057402208</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N34" t="n">
-        <v>1333.012482446085</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O34" t="n">
-        <v>1632.342081366499</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P34" t="n">
-        <v>1864.949581800158</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>1942.559877952673</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1852.729420710201</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S34" t="n">
-        <v>1852.729420710201</v>
+        <v>1705.753793082345</v>
       </c>
       <c r="T34" t="n">
-        <v>1630.962805279727</v>
+        <v>1705.753793082345</v>
       </c>
       <c r="U34" t="n">
-        <v>1630.962805279727</v>
+        <v>1705.753793082345</v>
       </c>
       <c r="V34" t="n">
-        <v>1630.962805279727</v>
+        <v>1451.069304876458</v>
       </c>
       <c r="W34" t="n">
-        <v>1341.545635242766</v>
+        <v>1161.652134839498</v>
       </c>
       <c r="X34" t="n">
-        <v>1113.556084344749</v>
+        <v>933.6625839414804</v>
       </c>
       <c r="Y34" t="n">
-        <v>892.7635052012189</v>
+        <v>712.8700047979503</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1285.591601078694</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="C35" t="n">
-        <v>916.6290841382827</v>
+        <v>926.2736972002933</v>
       </c>
       <c r="D35" t="n">
-        <v>558.3633855315322</v>
+        <v>568.0079985935429</v>
       </c>
       <c r="E35" t="n">
-        <v>172.575132933288</v>
+        <v>182.2197459952986</v>
       </c>
       <c r="F35" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
@@ -6959,28 +6961,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U35" t="n">
-        <v>3119.628073993393</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V35" t="n">
-        <v>2788.565186649822</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W35" t="n">
-        <v>2435.796531379708</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X35" t="n">
-        <v>2062.330773118628</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y35" t="n">
-        <v>1672.191441142816</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="36">
@@ -7011,16 +7013,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>773.7942044041906</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C37" t="n">
-        <v>604.8580214762837</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D37" t="n">
-        <v>604.8580214762837</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E37" t="n">
-        <v>456.9449278938906</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F37" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7117,28 +7119,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U37" t="n">
-        <v>1326.59460854119</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V37" t="n">
-        <v>1326.59460854119</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W37" t="n">
-        <v>1326.59460854119</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X37" t="n">
-        <v>1176.23524837796</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y37" t="n">
-        <v>955.4426692344304</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1698.509627919559</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C38" t="n">
-        <v>1329.547110979147</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D38" t="n">
-        <v>971.281412372397</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E38" t="n">
-        <v>585.4931597741527</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F38" t="n">
-        <v>174.5072549845451</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="G38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7196,28 +7198,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450753</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.975386180639</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.509627919559</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y38" t="n">
-        <v>1698.509627919559</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7250,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1091.613680441807</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="C40" t="n">
-        <v>922.6774975139006</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="D40" t="n">
-        <v>772.5608581015648</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>2022.959038039849</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N40" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O40" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P40" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S40" t="n">
-        <v>1837.464090846021</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T40" t="n">
-        <v>1615.697475415547</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="U40" t="n">
-        <v>1615.697475415547</v>
+        <v>2533.219997888694</v>
       </c>
       <c r="V40" t="n">
-        <v>1615.697475415547</v>
+        <v>2278.535509682807</v>
       </c>
       <c r="W40" t="n">
-        <v>1501.251696170064</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="X40" t="n">
-        <v>1273.262145272047</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="Y40" t="n">
-        <v>1273.262145272047</v>
+        <v>2170.872131622242</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1616.654488422265</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C41" t="n">
-        <v>1247.691971481853</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D41" t="n">
-        <v>889.426272875103</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E41" t="n">
-        <v>503.6380202768588</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F41" t="n">
-        <v>503.6380202768588</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7421,40 +7423,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3119.628073993393</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U41" t="n">
-        <v>3119.628073993393</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V41" t="n">
-        <v>3119.628073993393</v>
+        <v>2720.022316677245</v>
       </c>
       <c r="W41" t="n">
-        <v>2766.859418723278</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="X41" t="n">
-        <v>2393.393660462199</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y41" t="n">
-        <v>2003.254328486387</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>678.6720730524786</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C43" t="n">
-        <v>509.7358901245717</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D43" t="n">
-        <v>359.619250712236</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E43" t="n">
-        <v>359.619250712236</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F43" t="n">
-        <v>212.7293032143256</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G43" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7603,16 +7605,16 @@
         <v>1326.59460854119</v>
       </c>
       <c r="V43" t="n">
-        <v>1309.102667924266</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="W43" t="n">
-        <v>1309.102667924266</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.113117026248</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y43" t="n">
-        <v>860.3205378827183</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1179.52858457759</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C44" t="n">
-        <v>810.5660676371781</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D44" t="n">
-        <v>452.3003690304276</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E44" t="n">
-        <v>66.5121164321834</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F44" t="n">
-        <v>66.5121164321834</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="G44" t="n">
         <v>66.5121164321834</v>
@@ -7646,22 +7648,22 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296685</v>
@@ -7676,22 +7678,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3267.095534218452</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>3013.565057492288</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V44" t="n">
-        <v>2682.502170148718</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W44" t="n">
-        <v>2329.733514878603</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X44" t="n">
-        <v>1956.267756617523</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y44" t="n">
-        <v>1566.128424641711</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064582</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>701.1808689801002</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C46" t="n">
-        <v>532.2446860521933</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="D46" t="n">
-        <v>382.1280466398575</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="E46" t="n">
-        <v>234.2149530574644</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="F46" t="n">
-        <v>234.2149530574644</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="G46" t="n">
-        <v>66.5121164321834</v>
+        <v>295.9565914742203</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>149.7394046920781</v>
       </c>
       <c r="I46" t="n">
         <v>66.5121164321834</v>
@@ -7834,22 +7836,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T46" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U46" t="n">
-        <v>1416.425065783662</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V46" t="n">
-        <v>1331.611463851887</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W46" t="n">
-        <v>1331.611463851887</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X46" t="n">
-        <v>1103.62191295387</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y46" t="n">
-        <v>882.8293338103399</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>206.13273267118</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,31 +8057,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5911984019044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>387.8305454418115</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>151.6735093079812</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8231,13 +8233,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>240.4465442417437</v>
+        <v>248.7601900310628</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.454437538929454</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,22 +8540,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179981</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071647</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>40.04114869769742</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9635,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9647,19 +9649,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>176.2173930448423</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9884,19 +9886,19 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>155.7266119469788</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>205.6599342165295</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10358,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>431.4113180801841</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -22559,13 +22561,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H2" t="n">
-        <v>43.57482634133936</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,16 +22597,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>43.47916695291525</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22644,7 +22646,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>22.80984455479995</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22702,13 +22704,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>95.09233340381543</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22717,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,22 +22752,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
-        <v>246.0266363723486</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22784,25 +22786,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>17.74313112736394</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>213.8363772381491</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.24014755885173</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22835,10 +22837,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22850,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22939,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>64.80413741755427</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>18.95985706866546</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22990,22 +22992,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>172.0663879933413</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>82.24152267763702</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23179,13 +23181,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23224,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>90.28847827501431</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>70.55976360183976</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>307.2767095024431</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>181.1251564493164</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>10.31347632938751</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>145.9927856228077</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>283.7274268245213</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23555,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>134.4897152564427</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23732,19 +23734,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>339.9661108572921</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>265.6735555317396</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23792,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23896,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>119.8931590276203</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23953,10 +23955,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>16.35117922901975</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23975,16 +23977,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>55.63165131926542</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>12.33598323394204</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24130,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>142.235404842364</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24178,7 +24180,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>68.10750358912659</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24212,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>8.211116127623029</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24269,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>178.3446460444189</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,22 +24417,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>75.50340795433985</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24455,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>290.3129182374928</v>
       </c>
       <c r="H26" t="n">
-        <v>95.39470287232768</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -24497,7 +24499,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>155.6308914313321</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24689,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24728,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>187.5697153957351</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>340.8896027848737</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,7 +24855,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24886,22 +24888,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>82.55208449419948</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>94.00500515817706</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24920,22 +24922,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>53.80216546193498</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>154.194373298768</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>79.34655933006105</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,16 +25125,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>59.37583054540315</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25163,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>301.8736594056179</v>
+        <v>333.9024222471533</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -25172,7 +25174,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25217,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>76.85388882743979</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25403,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>345.5834682595413</v>
+        <v>181.1251564493168</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25457,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25597,22 +25599,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>173.2216768835635</v>
+        <v>179.9362540566314</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25637,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>272.7748452345453</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -25682,16 +25684,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>183.137730686051</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25792,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25843,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>234.8206221130728</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>150.3877347805213</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25874,10 +25876,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>181.1251564493168</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25916,13 +25918,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>145.9927856228092</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26023,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>13.95740503254235</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,16 +26076,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>168.1721774113707</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>760467.7251471309</v>
+        <v>772415.6551926885</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>760467.7251471309</v>
+        <v>769813.3123713789</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>760467.7251471308</v>
+        <v>763382.9186803491</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>840932.3881638669</v>
+        <v>840932.3881638671</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>840932.3881638668</v>
+        <v>840932.3881638672</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1004090.418974227</v>
+        <v>840932.3881638669</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>926672.6267132099</v>
+        <v>840932.3881638668</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>926672.6267132098</v>
+        <v>840932.3881638668</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>926672.6267132099</v>
+        <v>840932.3881638668</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>840932.3881638671</v>
+        <v>840932.3881638668</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>840932.3881638669</v>
+        <v>840932.3881638668</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>840932.3881638671</v>
+        <v>840932.3881638669</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>840932.3881638669</v>
+        <v>840932.3881638668</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>321270.2120190241</v>
+        <v>308661.2094769182</v>
       </c>
       <c r="C2" t="n">
-        <v>321270.212019024</v>
+        <v>315498.7023360293</v>
       </c>
       <c r="D2" t="n">
-        <v>321270.2120190239</v>
+        <v>322602.6474809535</v>
       </c>
       <c r="E2" t="n">
         <v>358046.9539194666</v>
       </c>
       <c r="F2" t="n">
+        <v>358046.9539194667</v>
+      </c>
+      <c r="G2" t="n">
+        <v>358046.9539194664</v>
+      </c>
+      <c r="H2" t="n">
+        <v>358046.9539194664</v>
+      </c>
+      <c r="I2" t="n">
         <v>358046.9539194666</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>358046.9539194667</v>
       </c>
-      <c r="H2" t="n">
-        <v>358046.9539194668</v>
-      </c>
-      <c r="I2" t="n">
-        <v>416935.8762313323</v>
-      </c>
-      <c r="J2" t="n">
-        <v>388993.3328494857</v>
-      </c>
       <c r="K2" t="n">
-        <v>388993.3328494856</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="L2" t="n">
-        <v>388993.3328494855</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="M2" t="n">
-        <v>358046.9539194667</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="N2" t="n">
         <v>358046.9539194666</v>
       </c>
       <c r="O2" t="n">
+        <v>358046.9539194665</v>
+      </c>
+      <c r="P2" t="n">
         <v>358046.9539194667</v>
-      </c>
-      <c r="P2" t="n">
-        <v>358046.9539194665</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>788872.8219169304</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>142513.6350285936</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>162483.517964052</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171908</v>
+        <v>175476.4059383956</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>96558.96659736053</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>122525.2635793587</v>
+        <v>169414.016826048</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>45829.42896872333</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11359.04569987401</v>
+        <v>52711.70878817389</v>
       </c>
       <c r="C4" t="n">
-        <v>11359.04569987402</v>
+        <v>34164.65115400218</v>
       </c>
       <c r="D4" t="n">
-        <v>11359.04569987401</v>
+        <v>11168.80134097642</v>
       </c>
       <c r="E4" t="n">
-        <v>6110.73931201763</v>
+        <v>6110.739312017629</v>
       </c>
       <c r="F4" t="n">
         <v>6110.739312017629</v>
@@ -26436,16 +26438,16 @@
         <v>6110.739312017629</v>
       </c>
       <c r="I4" t="n">
-        <v>32032.95503079768</v>
+        <v>6110.739312017629</v>
       </c>
       <c r="J4" t="n">
-        <v>19732.97383162305</v>
+        <v>6110.739312017629</v>
       </c>
       <c r="K4" t="n">
-        <v>19732.97383162305</v>
+        <v>6110.739312017629</v>
       </c>
       <c r="L4" t="n">
-        <v>19732.97383162306</v>
+        <v>6110.739312017629</v>
       </c>
       <c r="M4" t="n">
         <v>6110.739312017629</v>
@@ -26467,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>85933.26903271279</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>89345.07489699087</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
@@ -26488,25 +26490,25 @@
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
-        <v>85907.99125817034</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
-        <v>85907.99125817034</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
-        <v>85907.99125817034</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
         <v>74306.34056139328</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-897778.3896966146</v>
+        <v>-618856.5902608989</v>
       </c>
       <c r="C6" t="n">
-        <v>216973.3938793052</v>
+        <v>49475.3412564426</v>
       </c>
       <c r="D6" t="n">
-        <v>216973.3938793052</v>
+        <v>55469.23881441553</v>
       </c>
       <c r="E6" t="n">
-        <v>95556.89422886494</v>
+        <v>102153.4681076602</v>
       </c>
       <c r="F6" t="n">
         <v>277629.8740460558</v>
       </c>
       <c r="G6" t="n">
-        <v>277629.8740460558</v>
+        <v>277629.8740460555</v>
       </c>
       <c r="H6" t="n">
-        <v>277629.8740460558</v>
+        <v>277629.8740460555</v>
       </c>
       <c r="I6" t="n">
-        <v>191960.4363494604</v>
+        <v>277629.8740460557</v>
       </c>
       <c r="J6" t="n">
-        <v>160827.1041803337</v>
+        <v>108215.8572200078</v>
       </c>
       <c r="K6" t="n">
-        <v>283352.3677596922</v>
+        <v>277629.8740460557</v>
       </c>
       <c r="L6" t="n">
-        <v>283352.3677596921</v>
+        <v>277629.8740460557</v>
       </c>
       <c r="M6" t="n">
-        <v>277629.8740460558</v>
+        <v>231800.4450773323</v>
       </c>
       <c r="N6" t="n">
         <v>277629.8740460557</v>
       </c>
       <c r="O6" t="n">
+        <v>277629.8740460555</v>
+      </c>
+      <c r="P6" t="n">
         <v>277629.8740460558</v>
-      </c>
-      <c r="P6" t="n">
-        <v>277629.8740460555</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>749.9809564976097</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26787,46 +26789,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>1194.51293060493</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
-        <v>1022.218078704547</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>1022.218078704547</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
-        <v>1022.218078704547</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022925</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>156.5048561595446</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>189.7254341522348</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757592</v>
+        <v>150.0703099434538</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.816623302254</v>
+        <v>183.9032638670462</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>363.1114752026374</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>468.2899801996555</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>183.903263867046</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.816623302254</v>
+        <v>183.9032638670462</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J3" t="n">
-        <v>189.8178475575841</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654579</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231072</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J4" t="n">
-        <v>119.0856174753787</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169137</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.0437987097484</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.014998820090891</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>30.87735666625584</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>116.2357420115542</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>255.8942561066895</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>383.5191561611369</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>475.7894263014937</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>529.4074115682851</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>537.9737769658683</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>507.9933824485895</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>433.5605990775956</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>325.5859538330904</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>189.3909196325346</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>68.70428561282124</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>13.19815733494788</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.2411999056072712</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>1.613166585674104</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>15.57979307743148</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>55.54104253307771</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>152.4088658859907</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>260.4910271261556</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>350.262332560511</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>408.7396212911972</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>419.5577428240732</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>383.8133674257154</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>308.0440649433295</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>205.9192996028909</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>29.96386179969222</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>6.502193386993425</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1061293806364542</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.352424675651427</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>12.02428484351906</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>40.67109842777202</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>95.61642456855589</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>157.1271577711385</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>201.0686649600313</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>211.9987152932505</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>206.9578596840044</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>191.15908051844</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>163.5696171351507</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>113.2471244311391</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>60.80993132519961</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>23.56907366567077</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>5.778541795965187</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.07376861867189612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32804,7 +32806,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
@@ -33281,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33737,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33992,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34129,7 +34131,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953983</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
         <v>557.281137600381</v>
@@ -34372,7 +34374,7 @@
         <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623184</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
         <v>769.2673490574995</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>346.8687486724458</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>373.1786946453892</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000389</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>588.4939208485436</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>243.944966752077</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>315.1028144241376</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>240.0230113315064</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>299.0611783410124</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>308.5607133692774</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>277.8951710269027</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>524.1263114938087</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>315.5952546185456</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>39.52180169138492</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>151.6622745597328</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>387.1148251643752</v>
       </c>
       <c r="L6" t="n">
-        <v>538.1269048795939</v>
+        <v>460.4681428116997</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>266.6055873691789</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>288.2160307407399</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>241.217122981271</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>492.5324261689365</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>276.0148132527185</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>2.257244451883111</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>134.8576659452556</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>228.6586902203474</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>251.5825922550911</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>251.090032063233</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>215.7442084324796</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>160.8481764000442</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>27.08508117944467</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>69.43465842984691</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000387</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000387</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>570.4594634530874</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>158.0708349274596</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>25.33729477225502</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -36355,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
@@ -36367,19 +36369,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>728.5192284577538</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36452,7 +36454,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36604,19 +36606,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>708.0284473598903</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>661.2500486088617</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36844,7 +36846,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36929,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
@@ -37078,7 +37080,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>983.7131534930955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
         <v>508.0530008882191</v>
@@ -37321,7 +37323,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
         <v>250.7943048037195</v>
@@ -37385,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37640,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.787000968712</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
@@ -38020,7 +38022,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923311</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
